--- a/biology/Histoire de la zoologie et de la botanique/Léonard_Baldner/Léonard_Baldner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léonard_Baldner/Léonard_Baldner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_Baldner</t>
+          <t>Léonard_Baldner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léonard (ou  Leonhard, Leonhart) Baldner (1612-1694) est un naturaliste strasbourgeois, chasseur et pêcheur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_Baldner</t>
+          <t>Léonard_Baldner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léonard Baldner naît à Strasbourg en 1612 dans une famille où l'on est pêcheur de père en fils.
-En 1666 il publie L'Histoire naturelle des eaux strasbourgeoises[1], un livre consacré aux poissons, oiseaux et animaux aquatiques observés aux environs de Strasbourg[2], illustré par Johann Walter.
+En 1666 il publie L'Histoire naturelle des eaux strasbourgeoises, un livre consacré aux poissons, oiseaux et animaux aquatiques observés aux environs de Strasbourg, illustré par Johann Walter.
 Léonard Baldner s'est marié trois fois. Quatre enfants sont nés de chaque union.
 Mort en 1694, il est inhumé au cimetière Saint-Urbain de Strasbourg.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9onard_Baldner</t>
+          <t>Léonard_Baldner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue du Neudorf – un quartier de Strasbourg – porte le nom de sa famille.
 </t>
